--- a/4_Data_Extraction/4_2_Open_Data/Paper_46/Clean_Data/CodeBook_P46_Exp2_Clean.xlsx
+++ b/4_Data_Extraction/4_2_Open_Data/Paper_46/Clean_Data/CodeBook_P46_Exp2_Clean.xlsx
@@ -59,7 +59,7 @@
     <t>Indication of whether the trial is a match or a mismatch</t>
   </si>
   <si>
-    <t>Match, Mismatch</t>
+    <t>Match, Nomatch</t>
   </si>
   <si>
     <t>Categorical</t>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14" outlineLevelRow="7" outlineLevelCol="3"/>
